--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA89173-E3CA-4DDC-B278-2B010AD25198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4137C533-B62E-4257-8CE9-99AD70806D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422F62-3549-4E42-9D7E-4FB1804649DC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,6 +488,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>45183</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
@@ -520,63 +525,73 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>45175</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>45184</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>45168</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4137C533-B62E-4257-8CE9-99AD70806D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D454F-B454-43B9-AF85-014C689D1881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Team STMI</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>https://www.when2meet.com/?21285417-26kBc</t>
+  </si>
+  <si>
+    <t>Understand Appendix F martingale in http://proceedings.mlr.press/v125/mou20a/mou20a.pdf</t>
+  </si>
+  <si>
+    <t>1) setup baselines for clustering w/o fairness</t>
+  </si>
+  <si>
+    <t>2) figure out w/time series data</t>
+  </si>
+  <si>
+    <t>3) apply different notions of fairness</t>
+  </si>
+  <si>
+    <t>look at MIMIC-3 dataset paper</t>
+  </si>
+  <si>
+    <t>first 2 steps 3-4 weeks altogether</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1703.07771.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iacr.org/archive/eurocrypt2013/78810351/78810351.pdf</t>
   </si>
 </sst>
 </file>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422F62-3549-4E42-9D7E-4FB1804649DC}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +498,7 @@
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,12 +512,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>45183</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -507,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>45175</v>
       </c>
@@ -515,7 +557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -523,12 +565,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>45183</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>45175</v>
       </c>
@@ -536,7 +581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -550,12 +595,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>45184</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -563,12 +608,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>45183</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>45168</v>
       </c>
@@ -576,7 +624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -590,7 +638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>23</v>
       </c>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D454F-B454-43B9-AF85-014C689D1881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D8B695-81AB-4C73-A27B-273D85B3333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Team STMI</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Jason Wang</t>
   </si>
   <si>
-    <t>Team JAC</t>
-  </si>
-  <si>
     <t>Chunkai Fu</t>
   </si>
   <si>
@@ -121,6 +118,21 @@
   </si>
   <si>
     <t>https://www.iacr.org/archive/eurocrypt2013/78810351/78810351.pdf</t>
+  </si>
+  <si>
+    <t>Team Anmol</t>
+  </si>
+  <si>
+    <t>looking at existing architectures for GNN (IMDB-B)</t>
+  </si>
+  <si>
+    <t>reading ICLR21 paper</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2305.06677.pdf</t>
+  </si>
+  <si>
+    <t>Learning Augmented Data Structures</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422F62-3549-4E42-9D7E-4FB1804649DC}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,22 +529,22 @@
         <v>45183</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,7 +566,7 @@
         <v>45175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -570,7 +582,7 @@
         <v>45183</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -578,7 +590,7 @@
         <v>45175</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -599,6 +611,9 @@
       <c r="B9" s="1">
         <v>45184</v>
       </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -613,7 +628,7 @@
         <v>45183</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -621,26 +636,47 @@
         <v>45168</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D8B695-81AB-4C73-A27B-273D85B3333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75065A7-DBEB-4CB7-ACD7-7B3131186892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75065A7-DBEB-4CB7-ACD7-7B3131186892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D754563D-5809-41D4-A816-11CB590D9112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
       <c r="B9" s="1">
         <v>45184</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -682,6 +682,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{399DDA50-D95F-4221-98BE-E757AD10B22E}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{5A3F8FAA-83C2-4037-B795-DA2A6D5C8FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D754563D-5809-41D4-A816-11CB590D9112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB260990-D78A-4DC4-A3E8-4B76BB87D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Team STMI</t>
   </si>
@@ -93,9 +93,6 @@
     <t>https://arxiv.org/pdf/1907.04018.pdf</t>
   </si>
   <si>
-    <t>https://www.when2meet.com/?21285417-26kBc</t>
-  </si>
-  <si>
     <t>Understand Appendix F martingale in http://proceedings.mlr.press/v125/mou20a/mou20a.pdf</t>
   </si>
   <si>
@@ -133,6 +130,18 @@
   </si>
   <si>
     <t>Learning Augmented Data Structures</t>
+  </si>
+  <si>
+    <t>Presentation discussion</t>
+  </si>
+  <si>
+    <t>Only consider label noise first</t>
+  </si>
+  <si>
+    <t>Minimize communication for protocols, CountSketch?</t>
+  </si>
+  <si>
+    <t>Team CJ</t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422F62-3549-4E42-9D7E-4FB1804649DC}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,163 +535,185 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
         <v>45183</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>45175</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>45183</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>45175</v>
+        <v>45190</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8" s="1">
+        <v>45183</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>45184</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>45175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>45183</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+        <v>45184</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>45168</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
+      <c r="B13" s="1">
+        <v>45190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>45168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>45184</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>45183</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>22</v>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{399DDA50-D95F-4221-98BE-E757AD10B22E}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{5A3F8FAA-83C2-4037-B795-DA2A6D5C8FFD}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{399DDA50-D95F-4221-98BE-E757AD10B22E}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{5A3F8FAA-83C2-4037-B795-DA2A6D5C8FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB260990-D78A-4DC4-A3E8-4B76BB87D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51303E05-46AF-4177-9DC3-9CA235B84CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Team STMI</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Team CJ</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1711.01566.pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1811.03093.pdf</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422F62-3549-4E42-9D7E-4FB1804649DC}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,86 +640,97 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
+        <v>45191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>45184</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>45190</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>45183</v>
+        <v>45190</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>45168</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>45184</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <v>45183</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{399DDA50-D95F-4221-98BE-E757AD10B22E}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{5A3F8FAA-83C2-4037-B795-DA2A6D5C8FFD}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{5A3F8FAA-83C2-4037-B795-DA2A6D5C8FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51303E05-46AF-4177-9DC3-9CA235B84CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6134850-8CB0-4949-92AF-F9DE11BAAFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Team STMI</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/1811.03093.pdf</t>
+  </si>
+  <si>
+    <t>Finish proof for CountSketch, start proof for general linear sketches, read https://eprint.iacr.org/2019/507.pdf, maybe https://link.springer.com/chapter/10.1007/978-3-031-30545-0_4</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422F62-3549-4E42-9D7E-4FB1804649DC}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +645,7 @@
       <c r="B11" s="1">
         <v>45191</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
@@ -667,63 +670,71 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>45183</v>
+        <v>45190</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>45168</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>45184</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
         <v>45183</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -731,6 +742,7 @@
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{399DDA50-D95F-4221-98BE-E757AD10B22E}"/>
     <hyperlink ref="C12" r:id="rId2" xr:uid="{5A3F8FAA-83C2-4037-B795-DA2A6D5C8FFD}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{F42608A0-CCDB-46A5-A1F9-3103748A600B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSCE689-23/689-book.xlsx
+++ b/CSCE689-23/689-book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\OneDrive\Documents\GitHub\samsonzhou.github.io\CSCE689-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be955f33642ecbf5/Documents/GitHub/samsonzhou.github.io/CSCE689-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6134850-8CB0-4949-92AF-F9DE11BAAFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44D86A42-49D5-4BD1-9504-45D42B5E731E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,18 +517,18 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>45190</v>
       </c>
@@ -550,7 +550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>45183</v>
       </c>
@@ -573,7 +573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45175</v>
       </c>
@@ -595,7 +595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -603,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45190</v>
       </c>
@@ -611,7 +611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45183</v>
       </c>
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45175</v>
       </c>
@@ -627,7 +627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -641,7 +641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45191</v>
       </c>
@@ -652,7 +652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45184</v>
       </c>
@@ -660,7 +660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45197</v>
       </c>
@@ -676,7 +676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45190</v>
       </c>
@@ -684,7 +684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45183</v>
       </c>
@@ -692,7 +692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45168</v>
       </c>
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -708,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45184</v>
       </c>
@@ -719,7 +719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45183</v>
       </c>
